--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,12 +55,12 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -73,220 +73,226 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>wife</t>
   </si>
   <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>gift</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>ever</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>ze</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>cooking</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>day</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>cream</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ice</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ice</t>
+    <t>exactly</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>far</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>quality</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>quality</t>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>really</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>buy</t>
@@ -653,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -722,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -740,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -764,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -772,13 +778,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6296296296296297</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -790,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
@@ -846,13 +852,13 @@
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.8498452012383901</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L5">
-        <v>549</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>549</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -864,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -872,13 +878,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4150943396226415</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -890,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8405797101449275</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>544</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>544</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -914,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -922,13 +928,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2868217054263566</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -940,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
@@ -972,13 +978,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2435897435897436</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -990,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.7333333333333333</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1014,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1022,13 +1028,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2222222222222222</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1040,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.7173913043478261</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1064,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1072,13 +1078,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1189189189189189</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1090,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.7142857142857143</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1114,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1122,13 +1128,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.7056277056277056</v>
+        <v>0.6677966101694915</v>
       </c>
       <c r="L11">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="M11">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1140,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1148,13 +1154,13 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.684931506849315</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1166,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1174,13 +1180,13 @@
         <v>27</v>
       </c>
       <c r="K13">
-        <v>0.6818181818181818</v>
+        <v>0.6457142857142857</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,13 +1206,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.676056338028169</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,13 +1232,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.6338983050847458</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L15">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1244,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>108</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1252,13 +1258,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6211878009630819</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L16">
-        <v>774</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>774</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1270,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>472</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1278,13 +1284,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6142857142857143</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="L17">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1296,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1304,13 +1310,13 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>0.5942857142857143</v>
+        <v>0.6147672552166934</v>
       </c>
       <c r="L18">
-        <v>104</v>
+        <v>766</v>
       </c>
       <c r="M18">
-        <v>104</v>
+        <v>766</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1322,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>71</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1330,13 +1336,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.5833333333333334</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1348,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1356,13 +1362,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.578125</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1374,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1382,13 +1388,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.5735294117647058</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1400,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1408,13 +1414,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.5625</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1426,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1434,13 +1440,13 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.543859649122807</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1452,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1460,13 +1466,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5192307692307693</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="L24">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1478,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1486,13 +1492,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5076923076923077</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1504,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1512,13 +1518,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5042735042735043</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L26">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M26">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1530,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1538,13 +1544,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.4819277108433735</v>
+        <v>0.46875</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1556,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1564,13 +1570,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.47</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L28">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1582,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1590,13 +1596,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4670658682634731</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L29">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1608,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1616,13 +1622,13 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.4586466165413534</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L30">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="M30">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1634,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1642,13 +1648,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4489795918367347</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1660,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1668,25 +1674,25 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.4444444444444444</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L32">
+        <v>20</v>
+      </c>
+      <c r="M32">
+        <v>20</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>28</v>
-      </c>
-      <c r="M32">
-        <v>28</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>35</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1694,13 +1700,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.3975903614457831</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L33">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M33">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1712,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1720,13 +1726,13 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>0.3950617283950617</v>
+        <v>0.4</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1738,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1746,13 +1752,13 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>0.3947368421052632</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1764,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1772,7 +1778,7 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>0.3877551020408163</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L36">
         <v>19</v>
@@ -1790,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1798,13 +1804,13 @@
         <v>51</v>
       </c>
       <c r="K37">
-        <v>0.3692307692307693</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1816,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1824,7 +1830,7 @@
         <v>52</v>
       </c>
       <c r="K38">
-        <v>0.360655737704918</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L38">
         <v>22</v>
@@ -1842,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1850,13 +1856,13 @@
         <v>53</v>
       </c>
       <c r="K39">
-        <v>0.3387096774193548</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1868,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>41</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1876,13 +1882,13 @@
         <v>54</v>
       </c>
       <c r="K40">
-        <v>0.3284313725490196</v>
+        <v>0.3308270676691729</v>
       </c>
       <c r="L40">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="M40">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1894,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>274</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1902,13 +1908,13 @@
         <v>55</v>
       </c>
       <c r="K41">
-        <v>0.3233082706766917</v>
+        <v>0.3229571984435798</v>
       </c>
       <c r="L41">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="M41">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1920,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>90</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1928,13 +1934,13 @@
         <v>56</v>
       </c>
       <c r="K42">
-        <v>0.3190661478599222</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L42">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1946,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>175</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1954,13 +1960,13 @@
         <v>57</v>
       </c>
       <c r="K43">
-        <v>0.2835616438356164</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="L43">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="M43">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1972,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1980,13 +1986,13 @@
         <v>58</v>
       </c>
       <c r="K44">
-        <v>0.2411194833153929</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L44">
-        <v>224</v>
+        <v>55</v>
       </c>
       <c r="M44">
-        <v>224</v>
+        <v>55</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1998,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>705</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2006,13 +2012,13 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.2407407407407407</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M45">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2024,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2032,13 +2038,13 @@
         <v>60</v>
       </c>
       <c r="K46">
-        <v>0.2277227722772277</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2050,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2058,13 +2064,13 @@
         <v>61</v>
       </c>
       <c r="K47">
-        <v>0.2105263157894737</v>
+        <v>0.2376237623762376</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2076,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2084,13 +2090,13 @@
         <v>62</v>
       </c>
       <c r="K48">
-        <v>0.1981981981981982</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2102,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2110,13 +2116,13 @@
         <v>63</v>
       </c>
       <c r="K49">
-        <v>0.1943573667711599</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L49">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2128,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>257</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2136,13 +2142,13 @@
         <v>64</v>
       </c>
       <c r="K50">
-        <v>0.1788079470198675</v>
+        <v>0.2346609257265877</v>
       </c>
       <c r="L50">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="M50">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2154,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>124</v>
+        <v>711</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2162,13 +2168,13 @@
         <v>65</v>
       </c>
       <c r="K51">
-        <v>0.1770334928229665</v>
+        <v>0.2302158273381295</v>
       </c>
       <c r="L51">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M51">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2180,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>172</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2188,13 +2194,13 @@
         <v>66</v>
       </c>
       <c r="K52">
-        <v>0.1726618705035971</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="L52">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M52">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2206,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2214,13 +2220,13 @@
         <v>67</v>
       </c>
       <c r="K53">
-        <v>0.1708609271523179</v>
+        <v>0.2037617554858934</v>
       </c>
       <c r="L53">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="M53">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2232,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>626</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2240,13 +2246,13 @@
         <v>68</v>
       </c>
       <c r="K54">
-        <v>0.1649616368286445</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L54">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2258,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>653</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2266,13 +2272,13 @@
         <v>69</v>
       </c>
       <c r="K55">
-        <v>0.1630434782608696</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2284,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2292,13 +2298,13 @@
         <v>70</v>
       </c>
       <c r="K56">
-        <v>0.1543624161073825</v>
+        <v>0.1801801801801802</v>
       </c>
       <c r="L56">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M56">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2310,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>126</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2318,13 +2324,13 @@
         <v>71</v>
       </c>
       <c r="K57">
-        <v>0.1531531531531531</v>
+        <v>0.1675191815856777</v>
       </c>
       <c r="L57">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2336,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>94</v>
+        <v>651</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2344,25 +2350,25 @@
         <v>72</v>
       </c>
       <c r="K58">
-        <v>0.1339285714285714</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="L58">
         <v>15</v>
       </c>
       <c r="M58">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N58">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2370,13 +2376,13 @@
         <v>73</v>
       </c>
       <c r="K59">
-        <v>0.1280487804878049</v>
+        <v>0.1615894039735099</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="M59">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2388,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>143</v>
+        <v>633</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2396,25 +2402,25 @@
         <v>74</v>
       </c>
       <c r="K60">
-        <v>0.1265206812652068</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L60">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="M60">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>359</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2422,13 +2428,13 @@
         <v>75</v>
       </c>
       <c r="K61">
-        <v>0.1229508196721311</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="L61">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M61">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2440,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2448,13 +2454,13 @@
         <v>76</v>
       </c>
       <c r="K62">
-        <v>0.1218487394957983</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="L62">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M62">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2466,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>209</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2474,13 +2480,13 @@
         <v>77</v>
       </c>
       <c r="K63">
-        <v>0.1182266009852217</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L63">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M63">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2492,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>179</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2500,13 +2506,13 @@
         <v>78</v>
       </c>
       <c r="K64">
-        <v>0.1153846153846154</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L64">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M64">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2518,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2526,25 +2532,25 @@
         <v>79</v>
       </c>
       <c r="K65">
-        <v>0.1134020618556701</v>
+        <v>0.1108108108108108</v>
       </c>
       <c r="L65">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M65">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>258</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2552,25 +2558,25 @@
         <v>80</v>
       </c>
       <c r="K66">
-        <v>0.1108108108108108</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="L66">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M66">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N66">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>329</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2578,13 +2584,13 @@
         <v>81</v>
       </c>
       <c r="K67">
-        <v>0.1016949152542373</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="L67">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M67">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2596,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2604,13 +2610,13 @@
         <v>82</v>
       </c>
       <c r="K68">
-        <v>0.0959409594095941</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="L68">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M68">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2622,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>245</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2630,13 +2636,13 @@
         <v>83</v>
       </c>
       <c r="K69">
-        <v>0.09429824561403509</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="L69">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M69">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2648,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2656,13 +2662,13 @@
         <v>84</v>
       </c>
       <c r="K70">
-        <v>0.09318181818181819</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="L70">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M70">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2674,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>399</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2682,13 +2688,13 @@
         <v>85</v>
       </c>
       <c r="K71">
-        <v>0.07777777777777778</v>
+        <v>0.08518518518518518</v>
       </c>
       <c r="L71">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M71">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2700,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2708,13 +2714,13 @@
         <v>86</v>
       </c>
       <c r="K72">
-        <v>0.06443914081145585</v>
+        <v>0.08403361344537816</v>
       </c>
       <c r="L72">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M72">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2726,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>392</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2734,25 +2740,25 @@
         <v>87</v>
       </c>
       <c r="K73">
-        <v>0.06169296987087518</v>
+        <v>0.081145584725537</v>
       </c>
       <c r="L73">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M73">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N73">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>654</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2760,13 +2766,13 @@
         <v>88</v>
       </c>
       <c r="K74">
-        <v>0.0546448087431694</v>
+        <v>0.06273062730627306</v>
       </c>
       <c r="L74">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M74">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2778,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>346</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2786,13 +2792,13 @@
         <v>89</v>
       </c>
       <c r="K75">
-        <v>0.04850746268656717</v>
+        <v>0.05876865671641791</v>
       </c>
       <c r="L75">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M75">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2804,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>1020</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2812,25 +2818,25 @@
         <v>90</v>
       </c>
       <c r="K76">
-        <v>0.04805914972273567</v>
+        <v>0.054519368723099</v>
       </c>
       <c r="L76">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M76">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N76">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O76">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>515</v>
+        <v>659</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2838,13 +2844,13 @@
         <v>91</v>
       </c>
       <c r="K77">
-        <v>0.04060913705583756</v>
+        <v>0.04612546125461255</v>
       </c>
       <c r="L77">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M77">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2856,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>378</v>
+        <v>517</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2864,25 +2870,77 @@
         <v>92</v>
       </c>
       <c r="K78">
-        <v>0.02941176470588235</v>
+        <v>0.04371584699453552</v>
       </c>
       <c r="L78">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M78">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N78">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>1122</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K79">
+        <v>0.03807106598984772</v>
+      </c>
+      <c r="L79">
+        <v>15</v>
+      </c>
+      <c r="M79">
+        <v>15</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K80">
+        <v>0.02339688041594454</v>
+      </c>
+      <c r="L80">
+        <v>27</v>
+      </c>
+      <c r="M80">
+        <v>30</v>
+      </c>
+      <c r="N80">
+        <v>0.9</v>
+      </c>
+      <c r="O80">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1127</v>
       </c>
     </row>
   </sheetData>
